--- a/Belgeler/Excel/İHA Kontrol Tablosu.xlsx
+++ b/Belgeler/Excel/İHA Kontrol Tablosu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Hür-Kanat\İHA Kontrol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Hür-Kanat\Belgeler\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34539DD5-3829-4060-908B-E8DDB99D91AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E43EC5-45DA-4F98-B012-ECD31CE405D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{8F09DEC1-24E3-40A7-99DE-51896C6AC351}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{8F09DEC1-24E3-40A7-99DE-51896C6AC351}"/>
   </bookViews>
   <sheets>
     <sheet name="Drone Testleri" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>Geçti</t>
   </si>
@@ -62,24 +62,6 @@
     <t>Motor Kalibrasyonu</t>
   </si>
   <si>
-    <t>Mikrokontrolcü Bağlantı Testi</t>
-  </si>
-  <si>
-    <t>Otonom Atış</t>
-  </si>
-  <si>
-    <t>Kamera-Sensör Görüntü Testi</t>
-  </si>
-  <si>
-    <t>Servo Hareket Testi</t>
-  </si>
-  <si>
-    <t>Nişan Al</t>
-  </si>
-  <si>
-    <t>Otonom Nişan Al</t>
-  </si>
-  <si>
     <t>Onaylama Tarihi:  __/__/____</t>
   </si>
   <si>
@@ -95,9 +77,6 @@
     <t>Değişiklik Önerileri</t>
   </si>
   <si>
-    <t>Atış Testi</t>
-  </si>
-  <si>
     <t>4 Motor Konum ve Yer Testi</t>
   </si>
   <si>
@@ -110,22 +89,25 @@
     <t>İHA Kontrol Testleri</t>
   </si>
   <si>
-    <t>Takip Cihazı Fırlatıcı Kontrol Testleri</t>
-  </si>
-  <si>
-    <t>Fırlatıcı Güç Testi</t>
-  </si>
-  <si>
-    <t>Hedefleme Kontrol Testleri</t>
-  </si>
-  <si>
     <t>Kısa Devre Testi</t>
   </si>
   <si>
-    <t>Kamera Kayıt-Aktarım Testi</t>
-  </si>
-  <si>
     <t>Recep KEPENEK</t>
+  </si>
+  <si>
+    <t>Yardımcı Sistemler Kontrol Testleri</t>
+  </si>
+  <si>
+    <t>Kamera Görüntü Testi</t>
+  </si>
+  <si>
+    <t>Kamera Kayıt - İşleme Testi</t>
+  </si>
+  <si>
+    <t>Frekans Veri Testi</t>
+  </si>
+  <si>
+    <t>Frekans Haritası Testi</t>
   </si>
 </sst>
 </file>
@@ -322,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,30 +322,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -373,19 +331,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,7 +695,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -721,250 +707,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -975,123 +961,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1</v>
-      </c>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
@@ -1100,34 +1016,33 @@
       <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1138,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53CE51C1-2DE3-4A08-924C-FA417646A6A5}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1150,28 +1065,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>32</v>
+      <c r="A1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
@@ -1188,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EB5F6C-E973-42BD-8F41-890163CA929A}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,28 +1115,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="24"/>
+    </row>
+    <row r="3" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+    </row>
+    <row r="4" spans="1:2" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="17" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F17" s="6"/>
@@ -1234,9 +1143,6 @@
       <c r="H18" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
